--- a/STACKRead/spreadsheets/books.xlsx
+++ b/STACKRead/spreadsheets/books.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romeo Espaldon Jr\Downloads\Final-Project-DSA-main (5)\Final-Project-DSA-main\STACKRead\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romeo Espaldon Jr\Downloads\Final-Project-DSA-main (6)\Final-Project-DSA-main\STACKRead\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EAB96F-E2CB-45E2-B261-570E69FE11F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FAF2CF-7DF2-482A-9012-50D312DBD5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="117">
   <si>
     <t>bookID</t>
   </si>
   <si>
-    <t>Publish_Date</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>awards</t>
+  </si>
+  <si>
+    <t>publish_date</t>
+  </si>
+  <si>
+    <t>image_path</t>
   </si>
   <si>
     <t xml:space="preserve">Ikigai </t>
@@ -151,6 +178,9 @@
     <t>Gretchen Rubin</t>
   </si>
   <si>
+    <t>Presence: Bringing Your Bold</t>
+  </si>
+  <si>
     <t>Amy Cuddy</t>
   </si>
   <si>
@@ -175,6 +205,9 @@
     <t>Vishen Lakhiani</t>
   </si>
   <si>
+    <t xml:space="preserve">Quiet: The Power of Introverts </t>
+  </si>
+  <si>
     <t>Susan Cain</t>
   </si>
   <si>
@@ -322,52 +355,22 @@
     <t>test</t>
   </si>
   <si>
-    <t>Tite ni Mang juan</t>
-  </si>
-  <si>
     <t>Mang Juan</t>
   </si>
   <si>
+    <t>yotba</t>
+  </si>
+  <si>
+    <t>Adoy</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
-    <t>123123</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>genre</t>
-  </si>
-  <si>
-    <t>theme</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>awards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quiet: The Power of Introverts </t>
-  </si>
-  <si>
-    <t>Presence: Bringing Your Bold</t>
-  </si>
-  <si>
-    <t>imagepath</t>
-  </si>
-  <si>
-    <t>C:\Users\Romeo Espaldon Jr\Downloads\Final-Project-DSA-main (5)\Final-Project-DSA-main\STACKRead\images\e326b92ced0cac7932bf9cc3b6f31259.jpg</t>
+    <t>C:/Users/Romeo Espaldon Jr/Downloads/400627318_1522862378513540_892932261299807503_n.jpg</t>
+  </si>
+  <si>
+    <t>test lang ulit</t>
   </si>
 </sst>
 </file>
@@ -732,49 +735,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" activeCellId="1" sqref="M11 L7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -782,34 +781,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -817,31 +813,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -849,31 +845,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -881,31 +877,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -913,31 +909,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -945,31 +941,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -977,31 +973,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1009,31 +1005,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1041,31 +1037,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1073,31 +1069,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1105,31 +1101,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1137,31 +1133,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1169,31 +1165,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1201,31 +1197,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1233,31 +1229,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1265,31 +1261,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1297,31 +1293,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1329,31 +1325,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1361,31 +1357,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1393,31 +1389,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1425,31 +1421,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1457,31 +1453,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1489,31 +1485,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1521,31 +1517,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1553,31 +1549,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1585,31 +1581,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1617,31 +1613,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1649,31 +1645,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1681,31 +1677,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1713,31 +1709,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1745,31 +1741,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1777,31 +1773,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1809,31 +1805,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1841,31 +1837,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1873,31 +1869,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F36">
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I36" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1905,31 +1901,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1937,31 +1933,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1969,31 +1965,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2001,31 +1997,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F40">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I40" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2033,31 +2029,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F41">
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I41" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2065,31 +2061,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I42" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2097,31 +2093,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F43">
         <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2129,31 +2125,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I44" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2161,31 +2157,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F45">
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2193,31 +2189,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F46">
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2225,31 +2221,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F47">
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I47" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2257,220 +2253,226 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F50">
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F51">
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I51" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I52" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F53">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I53" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="I54" t="s">
-        <v>102</v>
+        <v>13</v>
+      </c>
+      <c r="J54" t="s">
+        <v>114</v>
+      </c>
+      <c r="K54" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
